--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21756" windowHeight="8507"/>
+    <workbookView windowWidth="20364" windowHeight="8327"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -52,43 +52,91 @@
     <t>200</t>
   </si>
   <si>
-    <t>起始背包大小</t>
+    <t>单个玩家金币日志数量</t>
   </si>
   <si>
     <t>1002</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>角色初始化布阵位置1号位</t>
+    <t>300</t>
+  </si>
+  <si>
+    <t>单个玩家U日志数量</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>每场战斗最大轮次</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>历史价格存多少天</t>
   </si>
   <si>
     <t>1004</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>每场战斗初始能量</t>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>默认今日系统推荐价格</t>
   </si>
   <si>
     <t>1005</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>能量上限</t>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>平台KAD通证总量</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>KAD默认兑换比例</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>后台设置额外兑换数量</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>KAD最大日志数量</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>分红池默认手续费比例,交易手续费的80%自动进入分红池</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>分红池默认今日分红比例，默认10%</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>后台设置额外注入数量</t>
   </si>
 </sst>
 </file>
@@ -96,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -110,10 +158,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +272,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -134,52 +312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,74 +327,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,13 +343,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,61 +391,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,115 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +552,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,38 +603,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,25 +639,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,152 +657,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,10 +812,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -744,6 +820,55 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -797,6 +922,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1091,17 +1225,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="64.1296296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="9" width="9.37962962962963" style="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -1111,7 +1245,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1122,7 +1256,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1133,7 +1267,7 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1141,72 +1275,657 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="58" customFormat="1" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="11"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="11"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="11"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="11"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="11"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="6"/>
+      <c r="C89" s="11"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="11"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="15"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="11"/>
+      <c r="B93" s="16"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="11"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="11"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="11"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="6"/>
+      <c r="C103" s="11"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="6"/>
+      <c r="C107" s="11"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="6"/>
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="11"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="11"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="11"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="11"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="11"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="11"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="11"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="11"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="11"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="6"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="6"/>
+      <c r="C120" s="11"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="6"/>
+      <c r="C121" s="11"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="6"/>
+      <c r="C122" s="11"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="6"/>
+      <c r="C123" s="11"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="6"/>
+      <c r="C124" s="11"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="6"/>
+      <c r="C125" s="11"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="6"/>
+      <c r="C126" s="11"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="11"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="11"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="11"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="6"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="11"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="11"/>
+    </row>
+    <row r="137" ht="15" spans="2:2">
+      <c r="B137" s="18"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="6"/>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="11"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="11"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="11"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="11"/>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="6"/>
+      <c r="H146" s="19"/>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="6"/>
+      <c r="C147" s="11"/>
+      <c r="H147" s="19"/>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="6"/>
+      <c r="C148" s="11"/>
+      <c r="H148" s="19"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="20"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="20"/>
+      <c r="H149" s="19"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="6"/>
+      <c r="C150" s="11"/>
+      <c r="H150" s="19"/>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="6"/>
+      <c r="C151" s="11"/>
+      <c r="H151" s="19"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="20"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="11"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="20"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="11"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="20"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="11"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="20"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="11"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="20"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="11"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="11"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="11"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="11"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="11"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="11"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="11"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="11"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="11"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="11"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="11"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="11"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="11"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="11"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="11"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="11"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="11"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="11"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="11"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="11"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="11"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="11"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="11"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="11"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="11"/>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="6"/>
+      <c r="C174" s="11"/>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="11"/>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="11"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="6"/>
+      <c r="C177" s="11"/>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="11"/>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="6"/>
+      <c r="C179" s="11"/>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="6"/>
+      <c r="C180" s="11"/>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="6"/>
+      <c r="C181" s="11"/>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="6"/>
+      <c r="C182" s="11"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="11"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="11"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="11"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="11"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="6"/>
+      <c r="C187" s="11"/>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189" s="21"/>
+      <c r="C189" s="20"/>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="21"/>
+      <c r="C190" s="20"/>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" s="21"/>
+      <c r="C191" s="20"/>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="21"/>
+      <c r="C192" s="20"/>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="21"/>
+      <c r="C193" s="20"/>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="6"/>
+      <c r="C194" s="11"/>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="6"/>
+      <c r="C195" s="11"/>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="3:7">
+      <c r="C204" s="8"/>
+      <c r="G204" s="22"/>
+    </row>
+    <row r="205" spans="3:7">
+      <c r="C205" s="8"/>
+      <c r="G205" s="22"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="11"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="11"/>
+      <c r="G206" s="22"/>
+    </row>
+    <row r="207" spans="7:7">
+      <c r="G207" s="22"/>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="11"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="6"/>
+      <c r="C210" s="11"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="11"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="11"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="11"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="11"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="11"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="11"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="11"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="11"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="11"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="6"/>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="6"/>
+      <c r="C225" s="11"/>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="6"/>
+      <c r="C226" s="11"/>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="6"/>
+      <c r="C227" s="11"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="11"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="11"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="11"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="11"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="11"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="11"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20364" windowHeight="8327"/>
+    <workbookView windowWidth="21090" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="野外boss鼓舞_OutBossInspire" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -137,6 +138,96 @@
   </si>
   <si>
     <t>后台设置额外注入数量</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>每隔多少兑换数量后增加1兑换比例，默认一百万</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>OTC-买入金币（挂单），消耗u,扣除成交额百分比的u手续费</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>OTC-撤单，获得U,扣除成交额百分比的u手续费</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>OTC-卖给Ta，获得U,找不到表格默认手续费</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>当天领币顺延30天为有效用户</t>
+  </si>
+  <si>
+    <t>鼓舞等级</t>
+  </si>
+  <si>
+    <t>消耗材料</t>
+  </si>
+  <si>
+    <t>鼓舞buff：buffId1，buffId2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>buffs</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2,100</t>
+  </si>
+  <si>
+    <t>+10%攻击，+10%生命</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>+20%攻击，+20%生命</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>+30%攻击，+30%生命</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>+40%攻击，+40%生命</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>+50%攻击，+50%生命</t>
   </si>
 </sst>
 </file>
@@ -144,8 +235,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -158,6 +249,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -171,13 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -191,7 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,20 +290,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +303,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -234,25 +409,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,76 +424,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -343,73 +434,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,127 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,17 +646,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +684,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,38 +720,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,181 +748,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -846,10 +940,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -867,7 +961,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,63 +1319,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3796296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="9" width="9.37962962962963" style="1"/>
+    <col min="7" max="9" width="9.375" style="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1406,528 +1500,731 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="9"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="9"/>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="10"/>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="58" customFormat="1" spans="1:3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="10"/>
+    <row r="43" spans="3:3">
+      <c r="C43" s="11"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="59" customFormat="1" spans="1:3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="11"/>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="6"/>
-      <c r="C68" s="11"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="11"/>
+    <row r="61" spans="3:3">
+      <c r="C61" s="12"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="9"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="11"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="11"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="14"/>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="12"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="9"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="6"/>
-      <c r="C87" s="11"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="11"/>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="6"/>
-      <c r="C89" s="11"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="11"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="15"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="11"/>
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="9"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="12"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="9"/>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="12"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="9"/>
+      <c r="C90" s="12"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="12"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="12"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="12"/>
+    </row>
+    <row r="93" spans="2:2">
       <c r="B93" s="16"/>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="11"/>
+    <row r="94" spans="1:2">
+      <c r="A94" s="12"/>
+      <c r="B94" s="17"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="12"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="11"/>
+      <c r="A97" s="12"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="11"/>
+      <c r="A98" s="12"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="11"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="6"/>
-      <c r="C103" s="11"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="6"/>
-      <c r="C107" s="11"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="6"/>
-      <c r="C111" s="11"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="11"/>
+      <c r="A99" s="12"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="12"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="12"/>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="9"/>
+      <c r="C104" s="12"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="9"/>
+      <c r="C108" s="12"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="9"/>
+      <c r="C112" s="12"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="11"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="11"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="12"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="11"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="11"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="12"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="11"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="11"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="12"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="11"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="11"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="11"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="12"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="12"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="12"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="9"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="6"/>
-      <c r="C121" s="11"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="12"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="6"/>
-      <c r="C122" s="11"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="12"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="6"/>
-      <c r="C123" s="11"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="12"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="6"/>
-      <c r="C124" s="11"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="12"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="6"/>
-      <c r="C125" s="11"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="12"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="6"/>
-      <c r="C126" s="11"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="11"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="11"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="12"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="9"/>
+      <c r="C127" s="12"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="9"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="11"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="11"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="6"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="12"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="12"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="12"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="11"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="11"/>
-    </row>
-    <row r="137" ht="15" spans="2:2">
-      <c r="B137" s="18"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="3:3">
-      <c r="C143" s="11"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="11"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="11"/>
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="12"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="12"/>
+    </row>
+    <row r="138" ht="16.5" spans="2:2">
+      <c r="B138" s="19"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="12"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="11"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="11"/>
-    </row>
-    <row r="146" spans="2:8">
-      <c r="B146" s="6"/>
-      <c r="H146" s="19"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="12"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="12"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="12"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="6"/>
-      <c r="C147" s="11"/>
-      <c r="H147" s="19"/>
+      <c r="B147" s="9"/>
+      <c r="H147" s="20"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="6"/>
-      <c r="C148" s="11"/>
-      <c r="H148" s="19"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="20"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="20"/>
-      <c r="H149" s="19"/>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="6"/>
-      <c r="C150" s="11"/>
-      <c r="H150" s="19"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="12"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="9"/>
+      <c r="C149" s="12"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="21"/>
+      <c r="H150" s="20"/>
     </row>
     <row r="151" spans="2:8">
-      <c r="B151" s="6"/>
-      <c r="C151" s="11"/>
-      <c r="H151" s="19"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="20"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="11"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="12"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="9"/>
+      <c r="C152" s="12"/>
+      <c r="H152" s="20"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="20"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="11"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="12"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="20"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="11"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="12"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="20"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="11"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="12"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="20"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="11"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="12"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="11"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="11"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="12"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="11"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="11"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="12"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="11"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="11"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="12"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="11"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="11"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="12"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="11"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="11"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="12"/>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="11"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="11"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="12"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="11"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="11"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="12"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="11"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="11"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="12"/>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="11"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="11"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="12"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="11"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="11"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="12"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="11"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="11"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="12"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="11"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="11"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="12"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="11"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="11"/>
-    </row>
-    <row r="174" spans="2:3">
-      <c r="B174" s="6"/>
-      <c r="C174" s="11"/>
-    </row>
-    <row r="175" spans="3:3">
-      <c r="C175" s="11"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="12"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="12"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="12"/>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="9"/>
+      <c r="C175" s="12"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="11"/>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="6"/>
-      <c r="C177" s="11"/>
-    </row>
-    <row r="178" spans="3:3">
-      <c r="C178" s="11"/>
-    </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="6"/>
-      <c r="C179" s="11"/>
+      <c r="C176" s="12"/>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="12"/>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="9"/>
+      <c r="C178" s="12"/>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="12"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="6"/>
-      <c r="C180" s="11"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="12"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="6"/>
-      <c r="C181" s="11"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="12"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="6"/>
-      <c r="C182" s="11"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="11"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="11"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="12"/>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="9"/>
+      <c r="C183" s="12"/>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="11"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="11"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="12"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="11"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="11"/>
-    </row>
-    <row r="187" spans="2:3">
-      <c r="B187" s="6"/>
-      <c r="C187" s="11"/>
-    </row>
-    <row r="189" spans="2:3">
-      <c r="B189" s="21"/>
-      <c r="C189" s="20"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="12"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="12"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="12"/>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188" s="9"/>
+      <c r="C188" s="12"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="21"/>
-      <c r="C190" s="20"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="21"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="21"/>
-      <c r="C191" s="20"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="21"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="21"/>
-      <c r="C192" s="20"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="21"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="21"/>
-      <c r="C193" s="20"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="21"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="6"/>
-      <c r="C194" s="11"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="21"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="6"/>
-      <c r="C195" s="11"/>
-    </row>
-    <row r="203" spans="3:3">
-      <c r="C203" s="8"/>
-    </row>
-    <row r="204" spans="3:7">
+      <c r="B195" s="9"/>
+      <c r="C195" s="12"/>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="9"/>
+      <c r="C196" s="12"/>
+    </row>
+    <row r="204" spans="3:3">
       <c r="C204" s="8"/>
-      <c r="G204" s="22"/>
     </row>
     <row r="205" spans="3:7">
       <c r="C205" s="8"/>
-      <c r="G205" s="22"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="11"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="11"/>
-      <c r="G206" s="22"/>
-    </row>
-    <row r="207" spans="7:7">
-      <c r="G207" s="22"/>
-    </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="11"/>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="6"/>
-      <c r="C210" s="11"/>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="11"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="11"/>
+      <c r="G205" s="23"/>
+    </row>
+    <row r="206" spans="3:7">
+      <c r="C206" s="8"/>
+      <c r="G206" s="23"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="12"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="12"/>
+      <c r="G207" s="23"/>
+    </row>
+    <row r="208" spans="7:7">
+      <c r="G208" s="23"/>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="12"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="9"/>
+      <c r="C211" s="12"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="11"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="11"/>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="11"/>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="11"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="11"/>
+      <c r="A215" s="12"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="12"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="12"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="12"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="12"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="11"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="11"/>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" spans="2:3">
-      <c r="B225" s="6"/>
-      <c r="C225" s="11"/>
+      <c r="A218" s="12"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="12"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="12"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="12"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="6"/>
-      <c r="C226" s="11"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="12"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="6"/>
-      <c r="C227" s="11"/>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="11"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="11"/>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="11"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="11"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="12"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="9"/>
+      <c r="C228" s="12"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="12"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="12"/>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="11"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="11"/>
+      <c r="A235" s="12"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="12"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="12"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B93">
+  <conditionalFormatting sqref="B94">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112">
+  <conditionalFormatting sqref="B113">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
+  <conditionalFormatting sqref="B138">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1101</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1103</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21090" windowHeight="10725"/>
+    <workbookView windowWidth="22343" windowHeight="9107"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -179,6 +179,273 @@
     <t>当天领币顺延30天为有效用户</t>
   </si>
   <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>单个玩家激活秘钥日志数量</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>实名验证送的一条鱼ID</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>http://172.19.0.15:1080/transaction/Recharge/newAccount</t>
+  </si>
+  <si>
+    <t>生成玩家唯一充值地址的URL</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>游戏充值地址默认版本号，版本号变化会玩家充值地址会更新</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>充值默认货币名称</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>间隔多少秒玩家可以领取一次鱼产出的金币(单位秒)</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>推荐人是否享有直推人员的团队收益，1有，0无</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>验证码有效时间(单位分)</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>【海洋星球】您的登录验证码是{}，该验证码5分钟内有效，请勿告诉他人。若非本人操作，请立即修改密码。-----Warriors 勇士</t>
+  </si>
+  <si>
+    <t>登录验证码信息</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>【海洋星球】您的注册验证码是{}，该验证码5分钟内有效，请勿告诉他人。若非本人操作，请立即修改密码。-----Warriors 勇士</t>
+  </si>
+  <si>
+    <t>注册验证码信息</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>【海洋星球】您正在找回密码操作，验证码是{}，该验证码5分钟内有效，请勿告诉他人。若非本人操作，请立即修改密码。-----Warriors 勇士</t>
+  </si>
+  <si>
+    <t>密码找回验证码信息</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>【海洋星球】您的验证码是{}，该验证码5分钟内有效，请勿告诉他人。若非本人操作，请立即修改密码。-----Warriors 勇士</t>
+  </si>
+  <si>
+    <t>提现验证码信息</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>单个玩家海豚金币日志数量</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>单个玩家海豚的购买名额日志数量</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>单个玩家海豚的加速积分日志数量</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>排队等候时间，用户领养后在n分钟后领养成功(单位分钟)</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>产蛋状态持续n小时进入飞升状态(单位小时)</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>进入飞升状态24小时结束后动物自动消失(单位小时)</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>进入孵化状态24小时,孵化结束(单位小时)</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>受孕成功后进入受孕状态24小时,受孕状态结束(单位小时)</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>用户将从挂卖开始48小时后售卖成功(单位小时)</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>一只海豚售卖成功获得多少U</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>购买一只海豚需要多少U</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>一个购买名额需要多少海豚金币兑换</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>一次最高可兑换购买名额数量</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>蛋需要进行手动孵化。每一枚蛋孵化需要支付50U</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>未受孕动物,用户可花费100金币（一只）为动物进行受孕</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1积分可加速24小时(单位小时)</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>持有动物每小时产出2金币</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>未持有动物每小时产出1金币</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>签到最高可累计多少小时不领取</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>签到每隔多少小时可领取</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>直推用户每领养一只海豚，用户将获得100金币</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>直推用户每领养一只海豚，用户将获得2个加速积分</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>团队非直推领养一只海豚，（砍腿）上级获得一个加速积分</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>团队非直推领养一只海豚，（砍腿）上级获得一个领养名额</t>
+  </si>
+  <si>
     <t>鼓舞等级</t>
   </si>
   <si>
@@ -206,15 +473,9 @@
     <t>+10%攻击，+10%生命</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>+20%攻击，+20%生命</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>+30%攻击，+30%生命</t>
   </si>
   <si>
@@ -222,9 +483,6 @@
   </si>
   <si>
     <t>+40%攻击，+40%生命</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>+50%攻击，+50%生命</t>
@@ -235,12 +493,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -254,12 +512,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -281,8 +533,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +601,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -303,8 +624,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,44 +649,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,22 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -393,37 +670,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -452,25 +704,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,157 +842,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,20 +898,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +918,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,17 +952,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,21 +995,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -751,10 +1003,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,137 +1015,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,17 +1167,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -949,18 +1194,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,17 +1567,17 @@
   <sheetPr/>
   <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.5555555555556" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="9" width="9.375" style="1"/>
+    <col min="7" max="9" width="9.37962962962963" style="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1555,512 +1801,886 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="11"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="9"/>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="9"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="59" customFormat="1" spans="1:3">
       <c r="A59" s="1"/>
-      <c r="B59" s="9"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="11"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="12"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="9"/>
-      <c r="C69" s="12"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="12"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="12"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="12"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="9"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="15"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="9"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="12"/>
+      <c r="A87" s="9"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="9"/>
-      <c r="C88" s="12"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="12"/>
+      <c r="A89" s="9"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="9"/>
-      <c r="C90" s="12"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="12"/>
+      <c r="A92" s="9"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="16"/>
+      <c r="B93" s="13"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="17"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="12"/>
+      <c r="A95" s="9"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="12"/>
+      <c r="A97" s="9"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="12"/>
+      <c r="A98" s="9"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="12"/>
+      <c r="A99" s="9"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="12"/>
+      <c r="A100" s="9"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="7"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="9"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="9"/>
-      <c r="C104" s="12"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="9"/>
-      <c r="C108" s="12"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="9"/>
-      <c r="C112" s="12"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="12"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="12"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="12"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="12"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="12"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="12"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="12"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="12"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="9"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="9"/>
-      <c r="C121" s="12"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="9"/>
-      <c r="C122" s="12"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="9"/>
-      <c r="C123" s="12"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="9"/>
-      <c r="C124" s="12"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="9"/>
-      <c r="C125" s="12"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="9"/>
-      <c r="C126" s="12"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="9"/>
-      <c r="C127" s="12"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="9"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="12"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="12"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="12"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="12"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="9"/>
+      <c r="B133" s="7"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="9"/>
+      <c r="B134" s="7"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="9"/>
+      <c r="B136" s="7"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="12"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="12"/>
-    </row>
-    <row r="138" ht="16.5" spans="2:2">
-      <c r="B138" s="19"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" ht="15" spans="2:2">
+      <c r="B138" s="16"/>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="9"/>
+      <c r="B143" s="7"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="12"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="12"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="12"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="12"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="12"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="9"/>
-      <c r="H147" s="20"/>
+      <c r="B147" s="7"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="9"/>
-      <c r="C148" s="12"/>
-      <c r="H148" s="20"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="9"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="2:8">
-      <c r="B149" s="9"/>
-      <c r="C149" s="12"/>
-      <c r="H149" s="20"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="9"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="21"/>
-      <c r="H150" s="20"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="18"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="2:8">
-      <c r="B151" s="9"/>
-      <c r="C151" s="12"/>
-      <c r="H151" s="20"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="9"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152" s="9"/>
-      <c r="C152" s="12"/>
-      <c r="H152" s="20"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="9"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="21"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="12"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="12"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="12"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="12"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="9"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="12"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="12"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="12"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="12"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="12"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="12"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="12"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="12"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="12"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="12"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="12"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="12"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="12"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="12"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="12"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="12"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="12"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="12"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="12"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="12"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="12"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="12"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="12"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="12"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="12"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="12"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="12"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="9"/>
-      <c r="C175" s="12"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="12"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="12"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="9"/>
-      <c r="C178" s="12"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="3:3">
-      <c r="C179" s="12"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="9"/>
-      <c r="C180" s="12"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="9"/>
-      <c r="C181" s="12"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="9"/>
-      <c r="C182" s="12"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="9"/>
-      <c r="C183" s="12"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="12"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="12"/>
+      <c r="A185" s="9"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="12"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="12"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="12"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="12"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="9"/>
-      <c r="C188" s="12"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="22"/>
-      <c r="C190" s="21"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="18"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="22"/>
-      <c r="C191" s="21"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="18"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="22"/>
-      <c r="C192" s="21"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="18"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="22"/>
-      <c r="C193" s="21"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="18"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="22"/>
-      <c r="C194" s="21"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="18"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="9"/>
-      <c r="C195" s="12"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="9"/>
-      <c r="C196" s="12"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="8"/>
+      <c r="C204" s="20"/>
     </row>
     <row r="205" spans="3:7">
-      <c r="C205" s="8"/>
-      <c r="G205" s="23"/>
+      <c r="C205" s="20"/>
+      <c r="G205" s="21"/>
     </row>
     <row r="206" spans="3:7">
-      <c r="C206" s="8"/>
-      <c r="G206" s="23"/>
+      <c r="C206" s="20"/>
+      <c r="G206" s="21"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="12"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="12"/>
-      <c r="G207" s="23"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="9"/>
+      <c r="G207" s="21"/>
     </row>
     <row r="208" spans="7:7">
-      <c r="G208" s="23"/>
+      <c r="G208" s="21"/>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="12"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="9"/>
-      <c r="C211" s="12"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="12"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="12"/>
+      <c r="A215" s="9"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="12"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="12"/>
+      <c r="A216" s="9"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="12"/>
+      <c r="A217" s="9"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="12"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="12"/>
+      <c r="A218" s="9"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="12"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="12"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="9"/>
+      <c r="B225" s="7"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="9"/>
-      <c r="C226" s="12"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="9"/>
-      <c r="C227" s="12"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="9"/>
-      <c r="C228" s="12"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="12"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="12"/>
+      <c r="A229" s="9"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="12"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="12"/>
+      <c r="A235" s="9"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="12"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="12"/>
+      <c r="A236" s="9"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B94">
@@ -2072,6 +2692,14 @@
   <conditionalFormatting sqref="B138">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="http://172.19.0.15:1080/transaction/Recharge/newAccount" tooltip="http://172.19.0.15:1080/transaction/Recharge/newAccount"/>
+    <hyperlink ref="B24" r:id="rId1" display="1" tooltip="http://172.19.0.15:1080/transaction/Recharge/newAccount"/>
+    <hyperlink ref="B25" r:id="rId1" display="USDT" tooltip="http://172.19.0.15:1080/transaction/Recharge/newAccount"/>
+    <hyperlink ref="B26" r:id="rId1" display="50" tooltip="http://172.19.0.15:1080/transaction/Recharge/newAccount"/>
+    <hyperlink ref="B27" r:id="rId1" display="0" tooltip="http://172.19.0.15:1080/transaction/Recharge/newAccount"/>
+    <hyperlink ref="B28" r:id="rId1" display="5" tooltip="http://172.19.0.15:1080/transaction/Recharge/newAccount"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2087,7 +2715,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -2098,13 +2726,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2126,13 +2754,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2149,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2157,69 +2785,69 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3">
         <v>1100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3">
         <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3">
         <v>1102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3">
         <v>1103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3">
         <v>1104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22343" windowHeight="9107"/>
+    <workbookView windowWidth="18480" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -533,57 +533,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,6 +550,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,9 +577,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,14 +637,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -648,10 +654,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,17 +669,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -704,6 +704,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -716,7 +788,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,163 +848,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,26 +898,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,6 +923,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -948,24 +948,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,6 +969,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1003,10 +1003,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,133 +1015,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,17 +1567,17 @@
   <sheetPr/>
   <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.5555555555556" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.5583333333333" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="9" width="9.37962962962963" style="1"/>
+    <col min="7" max="9" width="9.375" style="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2383,7 +2383,7 @@
       <c r="B137" s="7"/>
       <c r="C137" s="9"/>
     </row>
-    <row r="138" ht="15" spans="2:2">
+    <row r="138" ht="16.5" spans="2:2">
       <c r="B138" s="16"/>
     </row>
     <row r="143" spans="2:2">
@@ -2715,7 +2715,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>

--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="9555"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
   <si>
     <t>ID</t>
   </si>
@@ -444,6 +444,72 @@
   </si>
   <si>
     <t>团队非直推领养一只海豚，（砍腿）上级获得一个领养名额</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>选择提现手续费方式，1:提现手续费方式1，2:提现手续费方式2</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>提现手续费方式1： 每笔提现固定扣除指定U</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>提现手续费方式2：扣除提现总额的百分比</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>提现门槛,最低提现值u</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>提现有效条件计算：5级以上动物可计算进入</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>提现需要满足团队条件1.团队到达多少人</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>提现需要满足团队条件2.团队中需要达到10％（后台可调控）5级以上动物</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>http://172.19.0.15:1080/transaction/Parameters/getTotalAddress</t>
+  </si>
+  <si>
+    <t>获取提现总账户地址的URL</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>http://172.19.0.15:1080/transaction/withdraw/transfer</t>
+  </si>
+  <si>
+    <t>提现地址的URL</t>
   </si>
   <si>
     <t>鼓舞等级</t>
@@ -493,8 +559,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -533,6 +599,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -555,15 +666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,14 +676,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,29 +699,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,33 +721,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,6 +735,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -704,37 +770,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,145 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +968,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,6 +988,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -932,6 +1009,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -952,21 +1044,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -980,18 +1057,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,10 +1069,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,133 +1081,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1565,10 +1631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2197,30 +2263,135 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="59" customFormat="1" spans="1:3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="9"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="7"/>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="9"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="7"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="9"/>
@@ -2228,49 +2399,49 @@
     <row r="74" spans="3:3">
       <c r="C74" s="9"/>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="7"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="12"/>
+    <row r="75" spans="3:3">
+      <c r="C75" s="9"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="7"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="7"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="9"/>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="7"/>
-      <c r="C88" s="9"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="9"/>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="7"/>
-      <c r="C90" s="9"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="9"/>
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="7"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="7"/>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:3">
       <c r="A92" s="9"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="13"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="14"/>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B92" s="7"/>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="9"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="13"/>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="9"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="9"/>
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="9"/>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="9"/>
@@ -2281,33 +2452,31 @@
     <row r="100" spans="1:1">
       <c r="A100" s="9"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:1">
       <c r="A101" s="9"/>
-      <c r="B101" s="7"/>
-    </row>
-    <row r="102" spans="2:2">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9"/>
       <c r="B102" s="7"/>
     </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="7"/>
-      <c r="C104" s="9"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="7"/>
-      <c r="C108" s="9"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="7"/>
-      <c r="C112" s="9"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="9"/>
-      <c r="B113" s="15"/>
+    <row r="103" spans="2:2">
+      <c r="B103" s="7"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="7"/>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="7"/>
+      <c r="C109" s="9"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="7"/>
       <c r="C113" s="9"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="9"/>
-      <c r="B114" s="7"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:3">
@@ -2325,12 +2494,13 @@
       <c r="B117" s="7"/>
       <c r="C117" s="9"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="1:3">
+      <c r="A118" s="9"/>
       <c r="B118" s="7"/>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="7"/>
-      <c r="C121" s="9"/>
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="7"/>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" s="7"/>
@@ -2356,45 +2526,44 @@
       <c r="B127" s="7"/>
       <c r="C127" s="9"/>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="7"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="9"/>
+    <row r="128" spans="2:3">
+      <c r="B128" s="7"/>
+      <c r="C128" s="9"/>
+    </row>
+    <row r="131" spans="2:2">
       <c r="B131" s="7"/>
-      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="9"/>
       <c r="B132" s="7"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:3">
+      <c r="A133" s="9"/>
       <c r="B133" s="7"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7"/>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="7"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="9"/>
+    <row r="135" spans="2:2">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="137" spans="2:2">
       <c r="B137" s="7"/>
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" ht="16.5" spans="2:2">
-      <c r="B138" s="16"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="7"/>
-    </row>
-    <row r="144" spans="3:3">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="9"/>
-      <c r="B145" s="7"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="9"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" ht="16.5" spans="2:2">
+      <c r="B139" s="16"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145" spans="3:3">
       <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3">
@@ -2402,13 +2571,13 @@
       <c r="B146" s="7"/>
       <c r="C146" s="9"/>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="1:3">
+      <c r="A147" s="9"/>
       <c r="B147" s="7"/>
-      <c r="H147" s="17"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="2:8">
       <c r="B148" s="7"/>
-      <c r="C148" s="9"/>
       <c r="H148" s="17"/>
     </row>
     <row r="149" spans="2:8">
@@ -2416,15 +2585,15 @@
       <c r="C149" s="9"/>
       <c r="H149" s="17"/>
     </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="18"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="18"/>
+    <row r="150" spans="2:8">
+      <c r="B150" s="7"/>
+      <c r="C150" s="9"/>
       <c r="H150" s="17"/>
     </row>
-    <row r="151" spans="2:8">
-      <c r="B151" s="7"/>
-      <c r="C151" s="9"/>
+    <row r="151" spans="1:8">
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="18"/>
       <c r="H151" s="17"/>
     </row>
     <row r="152" spans="2:8">
@@ -2432,10 +2601,10 @@
       <c r="C152" s="9"/>
       <c r="H152" s="17"/>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="18"/>
+    <row r="153" spans="2:8">
       <c r="B153" s="7"/>
       <c r="C153" s="9"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="18"/>
@@ -2458,7 +2627,7 @@
       <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="9"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="7"/>
       <c r="C158" s="9"/>
     </row>
@@ -2522,25 +2691,26 @@
       <c r="B170" s="7"/>
       <c r="C170" s="9"/>
     </row>
-    <row r="175" spans="2:3">
-      <c r="B175" s="7"/>
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3">
+    <row r="171" spans="1:3">
+      <c r="A171" s="9"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="9"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="7"/>
       <c r="C176" s="9"/>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="9"/>
     </row>
-    <row r="178" spans="2:3">
-      <c r="B178" s="7"/>
+    <row r="178" spans="3:3">
       <c r="C178" s="9"/>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="2:3">
+      <c r="B179" s="7"/>
       <c r="C179" s="9"/>
     </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="7"/>
+    <row r="180" spans="3:3">
       <c r="C180" s="9"/>
     </row>
     <row r="181" spans="2:3">
@@ -2555,10 +2725,9 @@
       <c r="B183" s="7"/>
       <c r="C183" s="9"/>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="9"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="9"/>
+    <row r="184" spans="2:3">
+      <c r="B184" s="7"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="9"/>
@@ -2570,13 +2739,14 @@
       <c r="B187" s="7"/>
       <c r="C187" s="9"/>
     </row>
-    <row r="188" spans="2:3">
+    <row r="188" spans="1:3">
+      <c r="A188" s="9"/>
       <c r="B188" s="7"/>
       <c r="C188" s="9"/>
     </row>
-    <row r="190" spans="2:3">
-      <c r="B190" s="19"/>
-      <c r="C190" s="18"/>
+    <row r="189" spans="2:3">
+      <c r="B189" s="7"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="19"/>
@@ -2595,69 +2765,69 @@
       <c r="C194" s="18"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="7"/>
-      <c r="C195" s="9"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="18"/>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="7"/>
       <c r="C196" s="9"/>
     </row>
-    <row r="204" spans="3:3">
-      <c r="C204" s="20"/>
-    </row>
-    <row r="205" spans="3:7">
+    <row r="197" spans="2:3">
+      <c r="B197" s="7"/>
+      <c r="C197" s="9"/>
+    </row>
+    <row r="205" spans="3:3">
       <c r="C205" s="20"/>
-      <c r="G205" s="21"/>
     </row>
     <row r="206" spans="3:7">
       <c r="C206" s="20"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="9"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="9"/>
+    <row r="207" spans="3:7">
+      <c r="C207" s="20"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="7:7">
+    <row r="208" spans="1:7">
+      <c r="A208" s="9"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="9"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="210" spans="3:3">
-      <c r="C210" s="9"/>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" s="7"/>
+    <row r="209" spans="7:7">
+      <c r="G209" s="21"/>
+    </row>
+    <row r="211" spans="3:3">
       <c r="C211" s="9"/>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="9"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="9"/>
+    <row r="212" spans="2:3">
+      <c r="B212" s="7"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="9"/>
       <c r="B216" s="7"/>
       <c r="C216" s="9"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:3">
       <c r="A217" s="9"/>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="B217" s="7"/>
+      <c r="C217" s="9"/>
+    </row>
+    <row r="218" spans="1:1">
       <c r="A218" s="9"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="9"/>
       <c r="B219" s="7"/>
       <c r="C219" s="9"/>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="7"/>
-    </row>
-    <row r="226" spans="2:3">
+    <row r="220" spans="1:3">
+      <c r="A220" s="9"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="9"/>
+    </row>
+    <row r="226" spans="2:2">
       <c r="B226" s="7"/>
-      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="7"/>
@@ -2667,29 +2837,33 @@
       <c r="B228" s="7"/>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="9"/>
+    <row r="229" spans="2:3">
       <c r="B229" s="7"/>
       <c r="C229" s="9"/>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="9"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="9"/>
+    <row r="230" spans="1:3">
+      <c r="A230" s="9"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="9"/>
       <c r="B236" s="7"/>
       <c r="C236" s="9"/>
     </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="9"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B94">
+  <conditionalFormatting sqref="B95">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
+  <conditionalFormatting sqref="B114">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
+  <conditionalFormatting sqref="B139">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -2726,13 +2900,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2754,13 +2928,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2777,7 +2951,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2785,13 +2959,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3">
         <v>1100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2799,13 +2973,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3">
         <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2813,27 +2987,27 @@
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C7" s="3">
         <v>1102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C8" s="3">
         <v>1103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2841,13 +3015,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C9" s="3">
         <v>1104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="23040" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -559,10 +559,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -599,11 +599,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,44 +682,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,65 +729,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -770,181 +770,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,11 +964,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,17 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1014,32 +1009,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,6 +1035,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1069,10 +1069,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,133 +1081,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,17 +1633,17 @@
   <sheetPr/>
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.5583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="143.555555555556" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="9" width="9.375" style="1"/>
+    <col min="7" max="9" width="9.37962962962963" style="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2557,7 +2557,7 @@
       <c r="B138" s="7"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" ht="16.5" spans="2:2">
+    <row r="139" ht="15" spans="2:2">
       <c r="B139" s="16"/>
     </row>
     <row r="144" spans="2:2">
@@ -2889,7 +2889,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>

--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9947"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -275,6 +275,15 @@
     <t>提现验证码信息</t>
   </si>
   <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>OTC挂单买单最高价格</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -407,18 +416,12 @@
     <t>2019</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>签到最高可累计多少小时不领取</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>签到每隔多少小时可领取</t>
   </si>
   <si>
@@ -461,7 +464,7 @@
     <t>2027</t>
   </si>
   <si>
-    <t>0.15</t>
+    <t>0.05</t>
   </si>
   <si>
     <t>提现手续费方式2：扣除提现总额的百分比</t>
@@ -488,7 +491,7 @@
     <t>2031</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>0.03</t>
   </si>
   <si>
     <t>提现需要满足团队条件2.团队中需要达到10％（后台可调控）5级以上动物</t>
@@ -510,6 +513,12 @@
   </si>
   <si>
     <t>提现地址的URL</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
   <si>
     <t>鼓舞等级</t>
@@ -559,10 +568,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -600,43 +609,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -653,7 +648,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,19 +682,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,10 +699,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,6 +714,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -721,23 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,67 +779,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,90 +947,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -939,18 +960,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,6 +988,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -994,6 +1012,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1005,33 +1043,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,11 +1064,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,10 +1078,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,133 +1090,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1631,16 +1640,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="143.555555555556" style="4" customWidth="1"/>
+    <col min="2" max="2" width="84.9259259259259" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="9" width="9.37962962962963" style="1"/>
@@ -2015,29 +2024,29 @@
         <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>95</v>
@@ -2059,40 +2068,40 @@
         <v>99</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>107</v>
@@ -2103,29 +2112,29 @@
         <v>108</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>114</v>
@@ -2147,40 +2156,40 @@
         <v>118</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>126</v>
@@ -2191,18 +2200,18 @@
         <v>127</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>131</v>
@@ -2213,188 +2222,210 @@
         <v>132</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="D59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:4">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="D60" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>153</v>
+      <c r="D61" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="D65" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="7"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="9"/>
+      <c r="C66" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="7"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="9"/>
@@ -2402,49 +2433,49 @@
     <row r="75" spans="3:3">
       <c r="C75" s="9"/>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="7"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="12"/>
+    <row r="76" spans="3:3">
+      <c r="C76" s="9"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="7"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="7"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="9"/>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="7"/>
-      <c r="C89" s="9"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="9"/>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="7"/>
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="9"/>
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="7"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9"/>
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:3">
       <c r="A93" s="9"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="13"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="14"/>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B93" s="7"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="13"/>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="9"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="9"/>
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="9"/>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="9"/>
@@ -2455,33 +2486,31 @@
     <row r="101" spans="1:1">
       <c r="A101" s="9"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:1">
       <c r="A102" s="9"/>
-      <c r="B102" s="7"/>
-    </row>
-    <row r="103" spans="2:2">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9"/>
       <c r="B103" s="7"/>
     </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="7"/>
-      <c r="C105" s="9"/>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="7"/>
-      <c r="C109" s="9"/>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="7"/>
-      <c r="C113" s="9"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="9"/>
-      <c r="B114" s="15"/>
+    <row r="104" spans="2:2">
+      <c r="B104" s="7"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="7"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="7"/>
+      <c r="C110" s="9"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="7"/>
       <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="9"/>
-      <c r="B115" s="7"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3">
@@ -2499,12 +2528,13 @@
       <c r="B118" s="7"/>
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="1:3">
+      <c r="A119" s="9"/>
       <c r="B119" s="7"/>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="7"/>
-      <c r="C122" s="9"/>
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="7"/>
     </row>
     <row r="123" spans="2:3">
       <c r="B123" s="7"/>
@@ -2530,45 +2560,44 @@
       <c r="B128" s="7"/>
       <c r="C128" s="9"/>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="7"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="9"/>
+    <row r="129" spans="2:3">
+      <c r="B129" s="7"/>
+      <c r="C129" s="9"/>
+    </row>
+    <row r="132" spans="2:2">
       <c r="B132" s="7"/>
-      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="9"/>
       <c r="B133" s="7"/>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:3">
+      <c r="A134" s="9"/>
       <c r="B134" s="7"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7"/>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="7"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="9"/>
+    <row r="136" spans="2:2">
+      <c r="B136" s="7"/>
+    </row>
+    <row r="138" spans="2:2">
       <c r="B138" s="7"/>
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" ht="15" spans="2:2">
-      <c r="B139" s="16"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="7"/>
-    </row>
-    <row r="145" spans="3:3">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="9"/>
-      <c r="B146" s="7"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="9"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" ht="15" spans="2:2">
+      <c r="B140" s="16"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="7"/>
+    </row>
+    <row r="146" spans="3:3">
       <c r="C146" s="9"/>
     </row>
     <row r="147" spans="1:3">
@@ -2576,13 +2605,13 @@
       <c r="B147" s="7"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="1:3">
+      <c r="A148" s="9"/>
       <c r="B148" s="7"/>
-      <c r="H148" s="17"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="2:8">
       <c r="B149" s="7"/>
-      <c r="C149" s="9"/>
       <c r="H149" s="17"/>
     </row>
     <row r="150" spans="2:8">
@@ -2590,15 +2619,15 @@
       <c r="C150" s="9"/>
       <c r="H150" s="17"/>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="18"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="18"/>
+    <row r="151" spans="2:8">
+      <c r="B151" s="7"/>
+      <c r="C151" s="9"/>
       <c r="H151" s="17"/>
     </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="7"/>
-      <c r="C152" s="9"/>
+    <row r="152" spans="1:8">
+      <c r="A152" s="18"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="18"/>
       <c r="H152" s="17"/>
     </row>
     <row r="153" spans="2:8">
@@ -2606,10 +2635,10 @@
       <c r="C153" s="9"/>
       <c r="H153" s="17"/>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="18"/>
+    <row r="154" spans="2:8">
       <c r="B154" s="7"/>
       <c r="C154" s="9"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="18"/>
@@ -2632,7 +2661,7 @@
       <c r="C158" s="9"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="9"/>
+      <c r="A159" s="18"/>
       <c r="B159" s="7"/>
       <c r="C159" s="9"/>
     </row>
@@ -2696,25 +2725,26 @@
       <c r="B171" s="7"/>
       <c r="C171" s="9"/>
     </row>
-    <row r="176" spans="2:3">
-      <c r="B176" s="7"/>
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3">
+    <row r="172" spans="1:3">
+      <c r="A172" s="9"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="9"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="7"/>
       <c r="C177" s="9"/>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="9"/>
     </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="7"/>
+    <row r="179" spans="3:3">
       <c r="C179" s="9"/>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="2:3">
+      <c r="B180" s="7"/>
       <c r="C180" s="9"/>
     </row>
-    <row r="181" spans="2:3">
-      <c r="B181" s="7"/>
+    <row r="181" spans="3:3">
       <c r="C181" s="9"/>
     </row>
     <row r="182" spans="2:3">
@@ -2729,10 +2759,9 @@
       <c r="B184" s="7"/>
       <c r="C184" s="9"/>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="9"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="9"/>
+    <row r="185" spans="2:3">
+      <c r="B185" s="7"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="9"/>
@@ -2744,13 +2773,14 @@
       <c r="B188" s="7"/>
       <c r="C188" s="9"/>
     </row>
-    <row r="189" spans="2:3">
+    <row r="189" spans="1:3">
+      <c r="A189" s="9"/>
       <c r="B189" s="7"/>
       <c r="C189" s="9"/>
     </row>
-    <row r="191" spans="2:3">
-      <c r="B191" s="19"/>
-      <c r="C191" s="18"/>
+    <row r="190" spans="2:3">
+      <c r="B190" s="7"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="19"/>
@@ -2769,69 +2799,69 @@
       <c r="C195" s="18"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="7"/>
-      <c r="C196" s="9"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="18"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="7"/>
       <c r="C197" s="9"/>
     </row>
-    <row r="205" spans="3:3">
-      <c r="C205" s="20"/>
-    </row>
-    <row r="206" spans="3:7">
+    <row r="198" spans="2:3">
+      <c r="B198" s="7"/>
+      <c r="C198" s="9"/>
+    </row>
+    <row r="206" spans="3:3">
       <c r="C206" s="20"/>
-      <c r="G206" s="21"/>
     </row>
     <row r="207" spans="3:7">
       <c r="C207" s="20"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="9"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="9"/>
+    <row r="208" spans="3:7">
+      <c r="C208" s="20"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="7:7">
+    <row r="209" spans="1:7">
+      <c r="A209" s="9"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="9"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="211" spans="3:3">
-      <c r="C211" s="9"/>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="7"/>
+    <row r="210" spans="7:7">
+      <c r="G210" s="21"/>
+    </row>
+    <row r="212" spans="3:3">
       <c r="C212" s="9"/>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="9"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="9"/>
+    <row r="213" spans="2:3">
+      <c r="B213" s="7"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="9"/>
       <c r="B217" s="7"/>
       <c r="C217" s="9"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:3">
       <c r="A218" s="9"/>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="B218" s="7"/>
+      <c r="C218" s="9"/>
+    </row>
+    <row r="219" spans="1:1">
       <c r="A219" s="9"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="9"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="9"/>
       <c r="B220" s="7"/>
       <c r="C220" s="9"/>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="7"/>
-    </row>
-    <row r="227" spans="2:3">
+    <row r="221" spans="1:3">
+      <c r="A221" s="9"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="9"/>
+    </row>
+    <row r="227" spans="2:2">
       <c r="B227" s="7"/>
-      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="7"/>
@@ -2841,29 +2871,33 @@
       <c r="B229" s="7"/>
       <c r="C229" s="9"/>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="9"/>
+    <row r="230" spans="2:3">
       <c r="B230" s="7"/>
       <c r="C230" s="9"/>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="9"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="9"/>
+    <row r="231" spans="1:3">
+      <c r="A231" s="9"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="9"/>
       <c r="B237" s="7"/>
       <c r="C237" s="9"/>
     </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="9"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B95">
+  <conditionalFormatting sqref="B96">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
+  <conditionalFormatting sqref="B115">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139">
+  <conditionalFormatting sqref="B140">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -2900,13 +2934,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2928,13 +2962,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2951,7 +2985,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2959,55 +2993,55 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3">
         <v>1100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C6" s="3">
         <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3">
         <v>1102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3">
         <v>1103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3015,13 +3049,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3">
         <v>1104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="23040" windowHeight="8687"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -609,14 +609,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +693,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -640,22 +710,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,71 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,6 +744,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -779,6 +779,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -791,31 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,19 +923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,18 +941,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -875,91 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,6 +970,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -984,30 +1023,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,31 +1048,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,10 +1078,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,133 +1090,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1642,8 +1642,8 @@
   <sheetPr/>
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2233,7 +2233,7 @@
         <v>134</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>135</v>

--- a/q全局配置.xlsx
+++ b/q全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8687"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置_CommonConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -278,7 +278,7 @@
     <t>1029</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>1.3</t>
   </si>
   <si>
     <t>OTC挂单买单最高价格</t>
@@ -374,9 +374,6 @@
     <t>2013</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>一次最高可兑换购买名额数量</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
   </si>
   <si>
     <t>2034</t>
-  </si>
-  <si>
-    <t>aa</t>
   </si>
   <si>
     <t>鼓舞等级</t>
@@ -1642,8 +1636,8 @@
   <sheetPr/>
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2156,271 +2150,269 @@
         <v>118</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B67" s="10"/>
       <c r="C67" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -2934,13 +2926,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2962,13 +2954,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2985,7 +2977,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2993,27 +2985,27 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3">
         <v>1100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="3">
         <v>1101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3021,27 +3013,27 @@
         <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3">
         <v>1102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="3">
         <v>1103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3049,13 +3041,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="3">
         <v>1104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
